--- a/500all/speech_level/speeches_CHRG-114hhrg97511.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97511.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. The subcommittee will come to order.    The chair will recognize himself for an opening statement.    Today's health subcommittee hearing will be examining the costly and burdensome regulations regarding the menu labeling requirements as proposed by the administration and scheduled to be implemented by December 1, 2015. The subject of our hearing, H.R. 2017, the Common Sense Nutrition Disclosure Act, is sponsored by our subcommittee colleague and Republican conference chair, Cathy McMorris Rodgers, and Representative Loretta Sanchez. The legislation will help small business owners, franchisees, as well as consumers who want easy access to accurate nutrition information. Covered establishments, including pizza delivery businesses and grocery stores will be subject to a cumbersome, rigid, and costly regulatory compliance process to avoid violations and possible criminal prosecution.    H.R. 2017 seeks to improve and clarify the final rule promulgated by the Food and Drug Administration implementing the menu labeling requirements of Section 4205 of the Affordable Care Act. The FDA issued a nearly 400-page final rule establishing a one-size-fits-all national nutrition disclosure requirement for restaurants and similar retail food establishments.    The concern is that this final rule goes well beyond what was intended by the ACA. The obligations are imposed not only on chain restaurants, including delivery establishments, but also on any other chain retailer that sells non-packaged food such as grocery store salad bars, and convenience stores' meals to go. Small businesses that are not chain restaurants but are indeed subject to the rule will face a dramatic increase in regulatory compliance cost.    Consumers most assuredly will see higher food costs, perhaps fewer choices. Some retailers may find it more advantageous to stop selling restaurant-type food altogether. So instead of purchasing fresh sandwiches, consumers may have to buy pre-packaged sandwiches, since those will not require the retailer to comply with labeling requirements.    Fixing this burdensome regulation could benefit tens of thousands of restaurants, grocery stores, convenience stores, small business owners, that otherwise would be burdened with regulations that will be costly and hurt job creation. According to the Office of Management and Budget, FDA's menu labeling proposal would be the third most burdensome regulation proposed in 2010; 14,536,183 hours to comply.    The objective of this legislation is to provide clarity, flexibility, and certainty for these companies, while also ensuring consumers have access to the information they need to make informed nutritional decisions.    So I look forward to the testimony today. I yield the balance of my time to Representative Morgan Griffith who would like to introduce some of our witnesses.</t>
   </si>
   <si>
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you, Mr. Chairman. I appreciate that opportunity.    I am very pleased to introduce Delegate Israel O'Quinn. Israel has been a member of the Virginia House of Delegates formerly know as the House of Burgesses many, many decades ago, and he has been there since 2011. He in his legislative capacity serves on the Committee of Commerce and Labor, which is much akin to Energy and Commerce, Privileges and Elections, as well as Militia, Police, and Public Safety. He is a member of the legislative Coal and Energy Commission, and serves on the board of directors for the Virginia Public Safety Foundation.    He is here today, as a citizen legislator should be, not in his role as a member of the Virginia House of Delegates, but in his role as an employee of K-VA-T food stores. That is known as the Food City supermarket chain, and as you might gather from the K-VA-T name, they do business in Kentucky, Virginia, and Tennessee.    And he is here to talk about, of course, menu labeling as it impacts the grocery business. But probably most importantly that I shouldn't leave out is that Israel also attended a fine institution of higher learning when he went to college at Emory &amp; Henry College, which is also my alma mater. So it is very, very great that you allowed me to introduce my old friend Israel O'Quinn to the members of the committee.    Thank you, and I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman, and thank our witnesses for being here today.    Today we are examining legislation that will roll back a policy designed to give people access to calorie information when ordering and consuming prepared foods. Congress embraced this principle when it mandated that the nutrition information be included on packaged food more than 20 years ago. Providing the public with calorie information allows people to make informed choices about the food they eat.    The Affordable Care Act was enacted in 2010 to improve the health of American people and strengthen our healthcare system. The main substance of the landmark law centered on expanding access of affordable insurance and put to end some of the worst abuses of the insurance industry. It also contained many provisions to promote prevention measures and general wellness. We know that consumers make better health decisions when they are empowered with information.    Following this principle, Section 4205 of the Affordable Care Act requires chain restaurants and food establishments that sell prepared food to include calorie information on menus and menu boards. Menu labeling has become increasingly important in recent decades as people eat out much more often than before, and the obesity epidemic has reached a crisis level. It is a simple reform to ensure that consumers have access to the same information regardless of whether eating at home or outside their home.    As we will hear from witnesses today on how away-from-home foods have negatively impacted the diet and health of the American people. Without easily accessible and standard calorie information, it is difficult to make informed choices at the point of purchase.    The legislation we are considering today may weaken this important tool. When enacted, the provision built off of the thrust of the more than dozen State and local policies. H.R. 2017 could undermine the compromise negotiated between a wide diversity of interests and stakeholders. As written, it would have significant financial and public health burdens on consumers, industry, and ultimately on taxpayer-funded budgets.    Giving supermarkets and convenience stores and other food preparing establishments a blanket exemption to a uniform standard is unwarranted. It is unsupported by the wealth of research on the cost of compliance and real world evidence from chains and restaurants that have embraced the commonsense measures. It would create an uneven playing field for competition among the businesses.    I appreciate the concerns raised by stakeholders represented here today with menu labeling requirements. While I do not support the legislation being considered by the subcommittee, I am sympathetic to the concerns and the timing and implementation and enforcement.    Due to lack of guidance or understanding questions on the Agency's rule, I ask the FDA to provide at least a year additional time for food establishments to comply. The law does not include a statutory deadline. The FDA should extend the implementation period to give industry the time to review such guidance and address outstanding issues and comply with this important requirement.    Again, Mr. Chairman, thank you for calling the hearing, and when considering the legislation, we must always keep the priority of transforming our broken healthcare system into a true healthcare system in mind. And, again, I thank you and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Well, thank you, Mr. Chairman.    Today we are going to discuss important bipartisan legislation that indeed seeks to provide some balance to the recently proposed menu labeling guidelines, H.R. 2017, the Common Sense Nutrition Disclosure Act of 2015. The bipartisan effort has always been spearheaded by Cathy McMorris Rodgers, a good friend, member of our leadership, active member of our committee.    This bill seeks to bring much needed clarity and alleviate some of the burdensome and unnecessary requirements that the menu labeling final rule has placed on businesses across the country.    Take, for example, my Michigan-based company Domino's, which we all know. Domino's has 34 million different potential menu combinations. It has an online calculator that determines the nutrition information for your particular order, and 91 percent of their orders are placed online, 91 percent. Requiring in-store information for 34 million potential menu items would cost each store an average of nearly $5,000 per year, and it wouldn't address the ultimate goal of informing consumers.    There is no doubt that the U.S. should have a uniform national policy for menu labeling. However, we need to take a pragmatic approach. The goal is ensuring customers have the information that they need to make informed decisions, and in order to do that we have to make sure that companies can reasonably comply with those requirements. The current situation fails to address the realistic needs of consumers and places enormous burden on businesses all across the country.    As it stands, restaurants and similar retail food establishments have until December 1 of this year to comply with the final rule, yet there are still a number of outstanding questions and issues. Complying with the final rule will take substantial time and resources, and FDA has made it even harder by failing to provide more clarity. Businesses need to know how to comply. In order to do so, businesses need time to plan and put things in place, and FDA's failure to provide clarity has made it impossible for those things to happen.    So today we are going to hear from the stakeholders. I hope that we can discuss solutions to the problems. I want to thank the panel, and I want to yield the balance of my time to the sponsor of the bill, Cathy McMorris Rodgers.</t>
   </si>
   <si>
     <t>400659</t>
   </si>
   <si>
-    <t>Cathy McMorris Rodgers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. McMorris Rodgers. Thank you. I would like to thank Chairman Pitts and Chairman Upton for their attention to this important issue, and Representative Loretta Sanchez for co-leading this bill.    Our joint efforts to clarify these regulations and represent the needs of America's small business owners are critical. I would also like to thank Chairman Upton and the nearly 40 other bipartisan Members who have thus far agreed to cosponsor.    H.R. 2017 is simple. Clarify the intent of this nearly 400-page regulation so that businesses can comply with it and so that consumers can have access to helpful calorie information. That is why my staff and I have met with stakeholders and other Member offices on all sides of this issue more than 20 times this year and have asked how we can improve this legislation. Something that we have heard again and again was that the 50 percent revenue trigger for what defines a restaurant is not fair. And I would like to ask unanimous consent to insert into the record a letter from the National Restaurant Association to Congress on April 28 that only discusses the 50 percent revenue exemption in H.R. 2017 as concerning.</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    Mr. Chairman, I would ask unanimous consent to put in the record a letter from Congresswoman DeLauro addressed to you and Mr. Green.</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>400663</t>
   </si>
   <si>
-    <t>Doris O. Matsui</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Matsui. I thank the ranking member for yielding me time. I thank the witness for being here today.    We all agree that the rising rates of obesity and the resulting chronic health conditions constitute a health crisis in our country. And we all agree that access to nutrition information is an important step in addressing the obesity epidemic.    The Affordable Care Act took great strides toward addressing this epidemic by requiring nutrition labeling at restaurants and other places where people purchase food.    The FDA has been working to implement this requirement in a reasonable way, and to provide guidance to stakeholders who have legitimate concerns about their ability to comply. However, to the extent that additional guidance is not supplied well in advance of the December 1 deadline, additional time is warranted.    I look forward to working with the FDA and stakeholders to ensure that this provision is successfully implemented to benefit consumers without imposing overly burdensome or impractical requirements on our businesses.    I look forward to hearing from our witnesses today and working with my colleagues to address this issue going forward, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -145,9 +124,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Hubbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hubbard. Chairman Pitts, Ranking Member Green, members of the subcommittee, thank you for the opportunity to testify before you today. My name is Sonya Hubbard, and I am the CEO of E-Z Mart Stores headquartered in Texarkana, Texas. E-Z Mart owns and operates nearly 300 convenience stores in Texas, Oklahoma, Arkansas and Louisiana, all of which offer foods that are subject to the FDA's current menu labeling regulations.    I am testifying today on behalf of NACS, the National Association of Convenience Stores. Although more than 60 percent of our members operate single stores, many of these single-store owners do business under the name of a major oil company or are franchisees of larger businesses that are thus covered by the menu labeling requirements that are subject of the hearing today.    The convenience store industry strongly supports H.R. 2017, the Common Sense Nutrition Disclosure Act, and the efforts to provide customers and consumers with nutrition information that they want and need. Indeed, most of the food sold in the convenience stores is prepackaged, as has been discussed, and already provides this information.    If Congress enacts H.R. 2017, consumers would receive more nutrition information than they do today, and they would receive it in a way that is more useful to them. The food operations of the convenience stores are vert different than that of chain restaurants, yet the FDA's final ruling was geared toward the chain restaurant model. Many chain restaurants sell the same food offerings prepared in the same way and displayed on the same menu at all of their locations. That is not true for the convenience store industry. Convenience stores, even those that are part of the same chain, sell different foods based upon the different locations and the different market demands. Even stores that do sell the same items may offer those items in different ways in stores that are configured differently.    At E-Z Mart, we have different foods in different locations, which would in turn require different menus. Even when different stores have the same foods like a breakfast sandwich, they might have a different calorie count because the supplier that provides the components are different. E-Z Mart deals with more than 50 food suppliers, and it has proved difficult getting the nutrition information we need from them. We expect that some won't get us that information by the December 1 deadline. And there isn't much we can do about it. Nothing in the law or regulations requires suppliers to give us the information that we need. The responsibility is ours alone.    The food we offer changes frequently. At any given time we may be testing 15 or 20 different new products, and some of them will become long-term permanent fixtures in our stores, and others may change and be only temporary. This only adds to the complexity and difficulties of complying with the rules.    We want to provide our customers with useful information, and H.R. 2017 does not roll back the regulations, but instead gives us the flexibility we need to do this.    For example, the legislation would allow us to have one menu board in our locations rather than a scattering of confusing signs throughout the stores that repeat the same information. A basic wall of words. It would allow us more flexibility to display calories in ranges and averages rather than trying to come up with exact calorie counts for all items that may vary. The bill would give us more flexibility for foods that we are testing in different locations.    In addition, the bill would be very helpful in curbing the high punitive nature of some of the enforcement provisions. It simply should be not be a felony if a store does not prepare the food exactly the same way as another store on the exact same day if one of my clerks makes a mistake. We need some recognition of the good faith efforts to comply. And no mistake in this area should be serious enough to charge one of my store managers with a felony.    Finally, we need more time to comply once new regulations are issued. This is a complex regulatory regime, and we must analyze each and every one of our locations differently. We need time to work with our suppliers.    The bottom line is that H.R. 2017 is good sensible legislation that will improve the FDA's rules by helping businesses actually comply, and that will mean more good useful information to consumers.    I thank you again for the opportunity to testify, and I look forward to answering any questions you may have.</t>
   </si>
   <si>
@@ -157,9 +133,6 @@
     <t xml:space="preserve">    Mr. Pitts. Now recognizes Mr. O'Quinn 5 minutes for opening statement.</t>
   </si>
   <si>
-    <t>O'Quinn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Quinn. Good morning, Chairman Pitts, Ranking Member Green, and health subcommittee members. I am Israel O'Quinn, Director of Strategic Initiatives for K-VA-T food stores based in Abingdon, Virginia. Our company operates 105 supermarkets primarily under the Food City banner in Kentucky, Virginia, and Tennessee. We are also an associate-owned ESOP company, and that is certainly something that we all take a lot of pride in. Additionally, we are members of the Food Marketing Institute and the National Grocers Association. So I am here representing a lot of grocers all over the United States today.    We really appreciate the work that you are doing to consider the impact of the FDA's menu labeling regulations on grocery stores and the need for the Common Sense Nutrition Disclosure Act of 2015, also known as H.R. 2017.    As grocers, we like to provide our customers with the products they want in the format that they desire, and more than 90 percent of the foods in our grocery store have not only calorie information but the full nutrition facts panel listing fat, sodium, and sugar content among other things. Many of the remaining items that we offer are actually sourced from within the store. If a cantaloupe or some other fruit or vegetable gets ripe in the produce department, we bring it over to the bakery/deli department, cut it up, and put it in the salad bar. And, in fact, many of our bakery/deli departments actually prepare foods that may be specific to a single store or a handful of stores based on regional tastes and preferences.    Throughout our stores and across our company, we have a team of quality assurance personnel that is focused exclusively on food safety. That includes implementation of the Food Safety Modernization Act, compliance with country of origin labeling, ingredient labeling, allergen labeling, bioterrorism and recordkeeping and proposed updates to the nutrition facts panel, as well as recall notifications.    We also have our own safety and quality standards that go well beyond these laws because I can promise you the last thing we want is someone to get sick from the food in our grocery stores.    You might ask how any of this is related to what we are talking about today. These are all areas that are of priority of the supermarket industry specifically and where we devote a lot of time and resources. They are also regulations that are not applied to chain restaurants. So when the FDA takes a chain restaurant menu labeling law and stretches its regulations out to grocery stores on top of all the other food safety and nutrition laws that we comply with and abide by, it shouldn't surprise anyone that the glove simply doesn't fit.    Now, we are wholly committed to aiding our customers in making healthy choices, and I will highlight quickly just three of those things that we are currently doing.    We, along with a lot of other grocers, have a healthy initiatives department that helps our associates and our customers make more informed decisions about healthy eating. Something we didn't have to do but something that is the right thing to do.    We have also invested significant resources in the NuVal scoring system, a system that gives a 0 to 100 score right on the shelf tag so you can easily tell the nutritional value of any given product.    We are also involved in a large locally grown produce initiative. Now, most of the farmers in this initiative were formerly tobacco farmers, and they are now growing the freshest and best tasting fruits and vegetables that you can find anywhere.    Over a 14-year span in this program, we have gone from purchasing $750,000 in product to nearly $6 million last year alone. We are now able to offer premium produce at a very affordable price, and you can know the specific farm from which that product came. We were doing locally grown a long time before it was actually cool.    In closing, you may or may not be aware that grocery stores operate on a profit margin that averages about 1 percent. There is very, very little room for us to absorb costs such as the ones presented by menu labeling.    When you operate on a razor thin profit imagine, you simply don't have the luxury of spending money on things that bring little to no value. The costs are ultimately passed along to the consumer, and in an economy that contracted at .7 percent last quarter, consumers can't afford to be paying more and getting very little in return for those investments.    Now, our industry has asked a lot of questions and attempted a lot of meetings with FDA throughout this process, and we have had very few meetings and very few answers. So we believe that H.R. 2017 is a huge step in the right direction. We thank Ms. McMorris Rodgers and Ms. Sanchez for putting this bill in, and we thank you very much for your time and attention.</t>
   </si>
   <si>
@@ -169,18 +142,12 @@
     <t xml:space="preserve">    Mr. Pitts. Now recognizes Ms. Liddle 5 minutes for opening statement.</t>
   </si>
   <si>
-    <t>Liddle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Liddle. Good morning, ladies and gentlemen. I am honored to have the privilege to speak on behalf of the 20,000 pizzerias across the U.S. who make up our coalition called the American Pizza Community, and for 900 Domino's small business owners. I appreciate your giving us this chance to discuss how calorie information is best presented to our customers.    Our requests are simple modern practical solutions that will inform consumers in a better way and relieve a cost burden from small business. I believe that you will find them more than reasonable.    At Domino's, as we have heard, there are 34 million ways to make a single pizza based on all the crust types, sauces, and toppings that we offer. Pizza Hut has published that they now have 2 billion.    So our first point is that you can't possibly fit all the iterations of a pizza on a typical menu board like you can for burgers, for example. FDA did understand that too. So they said just put ranges. But if you put ranges for a whole pie, that is a range of up to 2,000 calories. If you do it by the slice, it is still a range of hundreds of calories. We think that the calories should be disclosed more precisely so that our customers actually know what they are eating. Our solution is to put the information where our customers go. Online. Right now about half of all Domino's orders and those of Pizza Hut and Papa John's come from online. And 5 minutes from now there will be more since the industry is moving there at warp speed. The rest of our customers who don't order online pick up the phone to order. This means that very few people, and our figures show less than 10 percent, walk into a store, look at a menu board and make their ordering decision in that way. Think about your own ordering habits. What do you do when you order pizza?    To illustrate this point with a specific example, we recently spent an average day in a Domino's store in Michigan. Out of the 324 orders we witnessed, 91 percent were placed remotely, either online or by phone. About 7 percent were placed in store, and not even 2 percent of customers, that is 5 out of 324, used the menu board to place an order. To us, it makes no sense to retrofit this information on a menu board which the vast majority don't even use.    My second point is about imposing an unneeded and somewhat bizarre expense, we think, on small business people. Most people think of Domino's or Papa John's, for example, as big business, but we are actually a collection of small business owners or franchisees. Nearly half of Domino's franchisees only own one store, and our average is just 5 stores per franchisee. This is the common model for pizza. So why make these small local business people who live, work, and hire in your districts pay thousands of dollars a year for something that nobody uses.    There are also other provisions of the final rules from FDA that we find pretty frightening. They define menus very broadly, which will force businesses to calorie label anything a customer could possibly order from. The original law defined a menu as the primary writing of the restaurant.    Now, I am a simple Midwesterner, but I think primary means first and foremost, not all. In our business, we send lots of advertising fliers out, top boxes with fliers, and put posters up in stores. None of these were ever intended as menus, and they can't possibly all be considered primary. And this isn't unique to pizza. It spans across many restaurant types. FDA claims to have recognized this point, but the definitions that they laid out in the final rules still don't differentiate these properly.    Lastly, the final FDA regulations require that you have to certify at both the corporate and individual store levels that you have listed all the correct calories in all the correct places and that you could face criminal penalties should you do this wrong. And what about class action lawsuits if a teenage pizza maker is a little heavy handed with the cheese and the slice doesn't match the listed calories.    We believe that a business should be required to show that it has made reasonable efforts to correctly depict calorie information, and I hope that we can all agree that inadvertently putting too many toppings on a pizza should not result in crippling fines and threats of jail time.    Even with all the fixes that we have proposed, the job of calorie labeling won't be an easy one, but we think it is worth it. People do have a right to know what they are eating, which is why we have been voluntarily disclosing calorie information in one form or another for 14 years.    But to get ready, computer programing, material design, nutritional research, and operational systems will need to be put in place. So we have asked for more time to get it done. But let me be clear. In no way do we see a delay in the rules as a solution. We must have a legislative fix.    In closing, I cannot say it too many times. We are not seeking an exemption. We want to comply in a way that fits our business model, provides the information to our customers in the clearest way, and doesn't make small business pay for materials customers won't see or use.    We ask you to support and ultimately vote for H.R. 2017 for the sake of all these important constituencies. Chairman Pitts, and members of the subcommittee, thank you for listening to me, and thank you, Representatives McMorris Rodgers and Sanchez for your leadership on this issue.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. Now recognizes Ms. Raskopf 5 minutes for an opening statement.</t>
   </si>
   <si>
-    <t>Raskopf</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Raskopf. Thank you for the opportunity to testify before you today. My name is Karen Raskopf, and I serve as the Chief Communications Officer for Dunkin' Brands. Dunkin' Brands is the franchisor and parent company of two of America's most beloved brands, Dunkin' Donuts and Baskin-Robbins. Both Dunkin' Donuts and Baskin-Robbins are essentially 100 percent franchised. At the end of 2014, Dunkin' Brands included more than 10,500 Dunkin' Donuts and Baskin-Robbins in the United States alone.    And, by the way, Baskin-Robbins franchisees own an average of about one restaurant. Dunkin' Donuts own an average of about six. So they are small business people.    Dunkin' Brands has proudly supported national uniform menu labeling for many years, and we continue to believe a national standard for providing nutrition information on all restaurant-type foods is critical. Over the past several years, Dunkin' Brands and many others in the restaurant industry have worked proactively with Congress and the administration to help reform what had previously been a complex highly localized approach to menu labeling.    Before the Federal solution, labeling laws were being passed on a state-by-state, city-by-city basis, and in some cases counties were competing with cities to pass such laws. Competing State and local menu labeling laws were difficult and disruptive for businesses, as well as lacking in consistency for customers. A national approach to labeling was an important and necessary step for our franchisees, our industry, and, most importantly, for consumers. It has been long overdue and remains critically important.    We acknowledge that today's food service industry is large and complex. However, though we continue to have some specific questions in regards to how to efficiently and effectively implement certain sections of the regulation, we appreciate FDA's commitment to working with stakeholders. We believe FDA generally followed the intent of the law, and did so in a manner to largely minimize cost and burden to the food service industry. While some may argue that there is expense and inefficiency in regards to implementation, after having complied with both individual State laws, as well as completing much of the work to meet the year end deadline, I can assure you FDA has worked to address most of the significant and potential costly issues to us.    Likewise, the new labeling regulation is intended to benefit both businesses and consumers by focusing on all establishments that serve restaurant-type food, not just a select few. For this reason, the regulation specifically includes not only restaurant chains but also other food service retailers with 20 or more locations, including convenience stores, grocery stores, and others.    H.R. 2017 includes a provision that imposes a percentage revenue threshold exempting grocery and convenience stores from having to label their restaurant-type food. We strongly disagree with this. The benefits of nutrition labeling are important no matter the size of the menu or the percentage of sales from food.    I hope Congress will maintain the labeling regulation as it was written. Grocery and convenience stores are increasingly competing against our restaurants. While we welcome the competition, we believe that restaurant-type food that grocery and convenience stores sell should be held to the same standards as the food that traditional restaurants sell. This is about the type of food being sold, not the business format.    A final point I would like to make is there have been many concerns expressed in regards to the expense associated with determining nutritional information and the cost to communicate that information. To be clear, the regulation states that food service operators need only use reasonable means to calculate nutrition information. Lab testing is not required. There are multiple ways to determine nutritional values, many of them at minimal cost.    And, very importantly, the regulation does not require menu boards. The regulation--how companies choose to communicate nutrition information is a business decision, not a legislative one, and from high tech to low tech, there are many communications options available to retailers.    For these reasons, we do not support the language in H.R. 2017 that clarifies this point. And to be clear, we do not believe any additional legislation is necessary. All clarifying information can be handled through FDA guidance.    Thank you for the opportunity to testify.</t>
   </si>
   <si>
@@ -190,9 +157,6 @@
     <t xml:space="preserve">    Mr. Pitts. Now recognizes Dr. Wootan 5 minutes for an opening statement.</t>
   </si>
   <si>
-    <t>Wootan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Wootan. Good morning. I am Margo Wootan, the Director of Nutrition Policy at the Center for Science in the Public Interest, and I appreciate the opportunity to share the consumer view this morning.    CSPI supports the Senate's bipartisan request to the FDA to give industry more time to comply with menu labeling, but we strongly oppose H.R. 2017. The Common Sense Nutrition Disclosure Act supports neither commonsense nor nutrition information disclosure. Commonsense would be to side with the American people who are afflicted by high rates of obesity over Domino's, which is hardly in need of Congressional protection, given its almost $2 billion in annual sales.    At a time when two-thirds of Americans are either overweight or obese, half of our food dollars are spent on away-from-home foods, and studies clearly link eating out to obesity. Common sense would suggest that Congress support Americans' ability to make educated choices from the widest range of food service establishments provided under the law.    I admire the gutsiness of some of my fellow witnesses. It is politically astute and clever to focus on the fixes that H.R. 2017 would supposedly provide them while failing to mention that the bill would totality exempt them from providing calorie information for their prepared foods. This bill most definitely would not make it easier for people to access meaningful, easily accessible nutrition information. That is why over 115 health experts and organizations oppose this bill.    Supermarkets say that they are willing to give customers what they want, but fail to mention that over 80 percent of Americans want supermarkets to provide calorie information for their prepared foods like fried chicken, sandwiches and soups. And more than a quarter want calorie labeling for the hot dogs, pizza, nachos, and other foods sold at convenience stores. How are people supposed to make informed choices if Congress, supermarkets, convenience stores, pizza chains, and movie theaters withhold nutrition information from them?    Supermarket and convenience store exaggerations about the cost of menu labeling remind me of concerns in the early days when I was first working on menu labeling. But those did not turn out to be true. Menu labeling software is inexpensive. Many supermarkets already have dieticians on staff who can conduct calorie analysis. And restaurants have shown that calorie labeling is affordable and feasible in the dozens of jurisdictions where it is already in effect.    It is also disingenuous for supermarkets and convenience stores to promote themselves to customers as alternatives to restaurants while at the same time lobbying Congress about how different they are. Supermarket bakeries, buffets, salad bars are like those in restaurants, and many supermarkets now have tables where people can eat. 7-Eleven, Wawa and Sheetz are among the hundred top food service establishments in the country. And some of them even belong to the National Restaurant Association.    It is particularly hard to understand why pizza restaurants need a special exemption from listing calories on in-store menu boards. While many people do order pizza by phone or computer, similarly, many do not enter fast food restaurants, and order instead through the drive-thru. Yet fast food restaurants aren't opposing having to provide their customers with nutrition information on each of their menus. Likewise, pizza restaurants should not deny nutrition information to their in-store customers.    And pizza is a real problem in American's diets. It is the fifth largest source of calories. It is the second biggest source of saturated fat, and it is the third biggest source of sodium. If any restaurants need comprehensive nutrition labeling, it is pizza restaurants. The variability of pizza with its different crusts and toppings is no different than the variability of Subway sandwiches with different breads and meats and toppings and spreads. Or ice cream sundaes or Chipotle burritos. Calories can and are being expressed as ranges, or being provided for commonly ordered standard builds.    Finally, H.R. 2017's provision to allow restaurants and other food service establishments to arbitrarily chose to label items for only a fraction of the menu item is a recipe for confusion. It would be deceptive for consumers and make it very difficult for them to order.    I urge the committee to oppose H.R. 2017. Your constituents' health depend on it.</t>
   </si>
   <si>
@@ -274,9 +238,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman. I was almost going to sneak out from the hearing. And I understand there is some people who want to see this information. And I think if you did national polling, people would say sure, I would like to have it on. I don't think I have ever in my life read a menu label. I don't think I have ever looked for calorie numbers on anything I have consumed. And I bet that, I bet you I am in the majority of Americans.    So I just throw that out there. I really struggle with this. This is the perfect example of a nanny state, of a national government telling individual citizens and saying what is best for them and directing and pushing private sector individuals, to push people to consume things that they feel--that, it is, and it is unfortunate but we are here.    And so we have some issues to address. And I was here when we passed the healthcare law. All we passed was the Senate version of a bill. The Obamacare that passed, the healthcare law was a Senate bill that we passed on the floor without any additional debate or oversight for a year and a half later.    So, I want to go to Ms. Hubbard. OK. Here is the example, I have sons that I love very much. So they go and they get a drink at one of the convenience stores. They have personally titled a Scourade. Now, I am not sure what is in this thing. I think it is Sprite, Coke, Powerade, you know, that they mix themselves. You can't label for that, can you?</t>
   </si>
   <si>
@@ -322,9 +283,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. Thank you all for being here and speaking to us today. Ms. Raskopf, on Dunkin' Donuts, I know you all are located in New York City. So New York City started this, what, in 2007 I believe? So you have been working on menu labeling for how long? Seven years, seven or eight, almost eight years?</t>
   </si>
   <si>
@@ -370,9 +328,6 @@
     <t>412315</t>
   </si>
   <si>
-    <t>Kurt Schrader</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schrader. Thank you, Mr. Chairman. I guess for Dr. Wootan and Ms. Raskopf, these rules, actually to everybody, obviously, this rule is not ready for prime time. We have had considerable discussion about what it is going to do, how it would be implemented. I understand that. And, you know, although the rules have come out, it is my understanding that, you know, there has not been a whole lot of guidance going on.    And some of you already addressed this, some of us sent a letter asking for a little bit of a delay to, hopefully, iron out, get some more guidance before we went prime. I am grateful for this hearing and actually for this bill so that we can look at what options we may have to make this actually reasonable and work. Because I think, like everybody has testified, we want to actually have good information out there for our consumers. I think that is good.    But I am curious, I ask, I guess, Ms. Raskopf and Dr. Wootan, do you think a little bit more time is needed? Or is this, should we just get to it and do up and down votes on this type of legislation.</t>
   </si>
   <si>
@@ -406,9 +361,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Mr. Chairman. And I thank this panel. It is an important issue we are trying to deal with, obesity in America. I need to get into some other areas here because I want to look at this picture globally. None of us want to have the epidemic of obesity and the problems it brings along with this.    There is a lot more that goes with this. As you know, there are a couple schools I have been monitoring over the years not in my district. One is a very famous study done with Naperville Schools outside of Chicago. They actually required physical activity, intensive, not just battle ball, throw the ball, get hit, sit down so you are not doing anything, but real cardiovascular activity, where they wear monitors. And they found that their obesity rate plummeted. And they found that kids who were involved in these activities, their reading scores went up, their math score went up dramatically. Similar studies have been done in Cambridge, Massachusetts and other places. But it does raise other issues.    So calories itself, I am concerned about, is a very passive, small number. And if you look at studies out there of cause of obesity, it includes genetics, family history, age of the person, pregnancy, sleep levels, emotional wellness, medications they are on, other health conditions, such as thyroid and adrenal gland functioning, smoking. Anybody propose we put all those things on the message boards too? Because those are going to be much more predictive. In other words, if what you do is sit in front of your TV and eat our food and that is all you do, you will get fat. I don't care what restaurant it is.    And I get concerned that we are taking out, pardon the pun, such a small slice of information here, that we are not getting Americans the information to get off your butt and move. That is what it ought to be.    Now, I like it when some restaurants actually say that, some box of cereal say that. Good for them. I think that is a powerful message for kids. But I start to look at also how these messages go through. And we are going to have some things that I am not quite sure get the whole thing out. If we are going to be comprehensive, let's be comprehensive. I mean, for example, I understand that daily chef specials are going to be exempt from this. Is that true?</t>
   </si>
   <si>
@@ -458,9 +410,6 @@
   </si>
   <si>
     <t>400360</t>
-  </si>
-  <si>
-    <t>Janice D. Schakowsky</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman. This is a little bit of dj vu for me, my career, it seems, started, I didn't know it then, started in the grocery store 45 years ago when a small group of housewives wanted to know how old our food was. Because everything was code dated. And we did, like detectives, cracked some of the codes and found things in the grocery store that were days, weeks, months, and years beyond the date. We didn't question the dates. And now everybody looks at the dates. I like to look at, stand in the dairy section and watch people check those milk dates, which they do.    We want to encourage people to look at the calories. Whether or not my colleague from Illinois does, maybe he should. And maybe we all should. And I want to suggest in terms of pizza, if there were a board that said on a slice of pizza, this is how much sausage adds to that slice, this is how much pepperoni adds to that slice, I can figure out, at least relatively, whether I get a sausage pizza or a pepperoni pizza or if there is a difference at all. Or if I get mushrooms or whatever, I could see that. This is not hard. And, I'm sorry, it is not hard to list the additions that you have on a pizza so that I could check and see which is the better choice if I am watching calories.    There may be a gender difference here too. I don't know a woman who doesn't look at the calories on food that we are buying. And we all should. In terms of the grocery stores, many serve as catering operations also. Why on a catering menu, would it be harder to list what the calories are on those things? I would make decisions, I do get catering things from my grocery store. I would like to know that. What is the difference between, if there is one, a ham sandwich or a turkey sandwich and that kind of thing when I am having a party.    The cost of obesity is, just for the healthcare cost is projected to be $344 billion by 2018. So even if you don't care about diabetes and all the other related things to obesity, we ought to be caring about the cost of, you know, what it costs us, what it costs our healthcare systems to treat obesity. And that, I think, would be one of the most important pieces of information.    So I don't quite understand the problem here. I did want to ask, who is pizza, Ms. Liddle--yes, why is this not a simple idea? And the FDA actually suggested it.</t>
@@ -1033,11 +982,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1057,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1085,11 +1030,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1109,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1137,11 +1078,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1161,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1187,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1215,11 +1150,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1239,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1267,11 +1198,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1291,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1319,11 +1246,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1343,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1369,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1397,11 +1318,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1421,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1449,11 +1366,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1475,11 +1390,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1499,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1527,11 +1438,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1553,11 +1462,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1577,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1605,11 +1510,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1631,11 +1534,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1655,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1683,11 +1582,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1709,11 +1606,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1733,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1761,11 +1654,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1787,11 +1678,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1811,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1839,11 +1726,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1865,11 +1750,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1889,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1917,11 +1798,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1941,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1967,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1995,11 +1870,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2019,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
         <v>54</v>
-      </c>
-      <c r="H40" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2045,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2073,11 +1942,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2097,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2125,11 +1990,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2149,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2177,11 +2038,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2201,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2229,11 +2086,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2253,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2281,11 +2134,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2305,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2331,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2357,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2383,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2409,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2435,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2461,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2489,11 +2326,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2513,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
-      </c>
-      <c r="G59" t="s">
-        <v>86</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2539,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2565,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" t="s">
-        <v>86</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2591,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
-      </c>
-      <c r="G62" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2617,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" t="s">
-        <v>86</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2643,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2669,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" t="s">
-        <v>86</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2695,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2723,11 +2542,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2747,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2773,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
-      </c>
-      <c r="G69" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2799,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2825,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2851,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2879,11 +2686,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2903,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
-      </c>
-      <c r="G74" t="s">
-        <v>102</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2929,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
-      </c>
-      <c r="G75" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2955,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" t="s">
-        <v>102</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2981,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3007,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
-      </c>
-      <c r="G78" t="s">
-        <v>102</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3033,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3059,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" t="s">
-        <v>102</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3085,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G81" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3111,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
-      </c>
-      <c r="G82" t="s">
-        <v>102</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3137,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3163,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>101</v>
-      </c>
-      <c r="G84" t="s">
-        <v>102</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3189,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
-      </c>
-      <c r="G85" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3215,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
+        <v>88</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>101</v>
-      </c>
-      <c r="G86" t="s">
-        <v>102</v>
-      </c>
-      <c r="H86" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3243,11 +3022,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3267,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>117</v>
-      </c>
-      <c r="G88" t="s">
-        <v>118</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3293,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3319,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>117</v>
-      </c>
-      <c r="G90" t="s">
-        <v>118</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3345,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
-      </c>
-      <c r="G91" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3371,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>117</v>
-      </c>
-      <c r="G92" t="s">
-        <v>118</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3399,11 +3166,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3425,11 +3190,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3449,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>117</v>
-      </c>
-      <c r="G95" t="s">
-        <v>118</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3475,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
-      </c>
-      <c r="G96" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3501,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>117</v>
-      </c>
-      <c r="G97" t="s">
-        <v>118</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3529,11 +3286,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3553,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
-      </c>
-      <c r="G99" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3579,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
-      </c>
-      <c r="G100" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3605,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>129</v>
-      </c>
-      <c r="G101" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3631,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
-      </c>
-      <c r="G102" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3657,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
-      </c>
-      <c r="G103" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3683,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
-      </c>
-      <c r="G104" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3709,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
-      </c>
-      <c r="G105" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3735,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>129</v>
-      </c>
-      <c r="G106" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3761,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
-      </c>
-      <c r="G107" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3787,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G108" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3813,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
-      </c>
-      <c r="G109" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3839,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
-      </c>
-      <c r="G110" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3865,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
-      </c>
-      <c r="G111" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3891,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
-      </c>
-      <c r="G112" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3919,11 +3646,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3945,11 +3670,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3969,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>147</v>
-      </c>
-      <c r="G115" t="s">
-        <v>148</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3995,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
-      </c>
-      <c r="G116" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4021,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>147</v>
-      </c>
-      <c r="G117" t="s">
-        <v>148</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4047,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
-      </c>
-      <c r="G118" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4073,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>147</v>
-      </c>
-      <c r="G119" t="s">
-        <v>148</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4099,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
-      </c>
-      <c r="G120" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4125,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>147</v>
-      </c>
-      <c r="G121" t="s">
-        <v>148</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4151,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
-      </c>
-      <c r="G122" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4177,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>147</v>
-      </c>
-      <c r="G123" t="s">
-        <v>148</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4203,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
-      </c>
-      <c r="G124" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4229,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>147</v>
-      </c>
-      <c r="G125" t="s">
-        <v>148</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4255,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
-      </c>
-      <c r="G126" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4281,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
-      </c>
-      <c r="G127" t="s">
-        <v>148</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4307,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
-      </c>
-      <c r="G128" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4335,11 +4030,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4359,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
-      </c>
-      <c r="G130" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4385,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
-      </c>
-      <c r="G131" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4411,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4437,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
-      </c>
-      <c r="G133" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4463,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G134" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4489,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
-      </c>
-      <c r="G135" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4515,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
-      </c>
-      <c r="G136" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4541,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
-      </c>
-      <c r="G137" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4567,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>25</v>
-      </c>
-      <c r="G138" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4593,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
-      </c>
-      <c r="G139" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4619,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4645,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
-      </c>
-      <c r="G141" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4671,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>25</v>
-      </c>
-      <c r="G142" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4697,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
-      </c>
-      <c r="G143" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4723,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>25</v>
-      </c>
-      <c r="G144" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4749,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
-      </c>
-      <c r="G145" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4775,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>25</v>
-      </c>
-      <c r="G146" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4801,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
-      </c>
-      <c r="G147" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4827,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4853,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
-      </c>
-      <c r="G149" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4879,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>25</v>
-      </c>
-      <c r="G150" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4905,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
-      </c>
-      <c r="G151" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4931,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>25</v>
-      </c>
-      <c r="G152" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4957,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
-      </c>
-      <c r="G153" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4983,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
-      </c>
-      <c r="G154" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5009,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
-      </c>
-      <c r="G155" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5035,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>25</v>
-      </c>
-      <c r="G156" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5061,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
-      </c>
-      <c r="G157" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5087,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>25</v>
-      </c>
-      <c r="G158" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5113,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
-      </c>
-      <c r="G159" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5139,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
-      </c>
-      <c r="G160" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5165,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>25</v>
-      </c>
-      <c r="G161" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5193,11 +4822,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5217,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5243,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
-      </c>
-      <c r="G164" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5269,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5295,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
-      </c>
-      <c r="G166" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5321,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5347,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
-      </c>
-      <c r="G168" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5373,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5399,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
-      </c>
-      <c r="G170" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5425,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5451,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
-      </c>
-      <c r="G172" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5477,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5505,11 +5110,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97511.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97511.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400320</t>
   </si>
   <si>
+    <t>Pitts</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pitts. The subcommittee will come to order.    The chair will recognize himself for an opening statement.    Today's health subcommittee hearing will be examining the costly and burdensome regulations regarding the menu labeling requirements as proposed by the administration and scheduled to be implemented by December 1, 2015. The subject of our hearing, H.R. 2017, the Common Sense Nutrition Disclosure Act, is sponsored by our subcommittee colleague and Republican conference chair, Cathy McMorris Rodgers, and Representative Loretta Sanchez. The legislation will help small business owners, franchisees, as well as consumers who want easy access to accurate nutrition information. Covered establishments, including pizza delivery businesses and grocery stores will be subject to a cumbersome, rigid, and costly regulatory compliance process to avoid violations and possible criminal prosecution.    H.R. 2017 seeks to improve and clarify the final rule promulgated by the Food and Drug Administration implementing the menu labeling requirements of Section 4205 of the Affordable Care Act. The FDA issued a nearly 400-page final rule establishing a one-size-fits-all national nutrition disclosure requirement for restaurants and similar retail food establishments.    The concern is that this final rule goes well beyond what was intended by the ACA. The obligations are imposed not only on chain restaurants, including delivery establishments, but also on any other chain retailer that sells non-packaged food such as grocery store salad bars, and convenience stores' meals to go. Small businesses that are not chain restaurants but are indeed subject to the rule will face a dramatic increase in regulatory compliance cost.    Consumers most assuredly will see higher food costs, perhaps fewer choices. Some retailers may find it more advantageous to stop selling restaurant-type food altogether. So instead of purchasing fresh sandwiches, consumers may have to buy pre-packaged sandwiches, since those will not require the retailer to comply with labeling requirements.    Fixing this burdensome regulation could benefit tens of thousands of restaurants, grocery stores, convenience stores, small business owners, that otherwise would be burdened with regulations that will be costly and hurt job creation. According to the Office of Management and Budget, FDA's menu labeling proposal would be the third most burdensome regulation proposed in 2010; 14,536,183 hours to comply.    The objective of this legislation is to provide clarity, flexibility, and certainty for these companies, while also ensuring consumers have access to the information they need to make informed nutritional decisions.    So I look forward to the testimony today. I yield the balance of my time to Representative Morgan Griffith who would like to introduce some of our witnesses.</t>
   </si>
   <si>
     <t>412485</t>
   </si>
   <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>H.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you, Mr. Chairman. I appreciate that opportunity.    I am very pleased to introduce Delegate Israel O'Quinn. Israel has been a member of the Virginia House of Delegates formerly know as the House of Burgesses many, many decades ago, and he has been there since 2011. He in his legislative capacity serves on the Committee of Commerce and Labor, which is much akin to Energy and Commerce, Privileges and Elections, as well as Militia, Police, and Public Safety. He is a member of the legislative Coal and Energy Commission, and serves on the board of directors for the Virginia Public Safety Foundation.    He is here today, as a citizen legislator should be, not in his role as a member of the Virginia House of Delegates, but in his role as an employee of K-VA-T food stores. That is known as the Food City supermarket chain, and as you might gather from the K-VA-T name, they do business in Kentucky, Virginia, and Tennessee.    And he is here to talk about, of course, menu labeling as it impacts the grocery business. But probably most importantly that I shouldn't leave out is that Israel also attended a fine institution of higher learning when he went to college at Emory &amp; Henry College, which is also my alma mater. So it is very, very great that you allowed me to introduce my old friend Israel O'Quinn to the members of the committee.    Thank you, and I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400160</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman, and thank our witnesses for being here today.    Today we are examining legislation that will roll back a policy designed to give people access to calorie information when ordering and consuming prepared foods. Congress embraced this principle when it mandated that the nutrition information be included on packaged food more than 20 years ago. Providing the public with calorie information allows people to make informed choices about the food they eat.    The Affordable Care Act was enacted in 2010 to improve the health of American people and strengthen our healthcare system. The main substance of the landmark law centered on expanding access of affordable insurance and put to end some of the worst abuses of the insurance industry. It also contained many provisions to promote prevention measures and general wellness. We know that consumers make better health decisions when they are empowered with information.    Following this principle, Section 4205 of the Affordable Care Act requires chain restaurants and food establishments that sell prepared food to include calorie information on menus and menu boards. Menu labeling has become increasingly important in recent decades as people eat out much more often than before, and the obesity epidemic has reached a crisis level. It is a simple reform to ensure that consumers have access to the same information regardless of whether eating at home or outside their home.    As we will hear from witnesses today on how away-from-home foods have negatively impacted the diet and health of the American people. Without easily accessible and standard calorie information, it is difficult to make informed choices at the point of purchase.    The legislation we are considering today may weaken this important tool. When enacted, the provision built off of the thrust of the more than dozen State and local policies. H.R. 2017 could undermine the compromise negotiated between a wide diversity of interests and stakeholders. As written, it would have significant financial and public health burdens on consumers, industry, and ultimately on taxpayer-funded budgets.    Giving supermarkets and convenience stores and other food preparing establishments a blanket exemption to a uniform standard is unwarranted. It is unsupported by the wealth of research on the cost of compliance and real world evidence from chains and restaurants that have embraced the commonsense measures. It would create an uneven playing field for competition among the businesses.    I appreciate the concerns raised by stakeholders represented here today with menu labeling requirements. While I do not support the legislation being considered by the subcommittee, I am sympathetic to the concerns and the timing and implementation and enforcement.    Due to lack of guidance or understanding questions on the Agency's rule, I ask the FDA to provide at least a year additional time for food establishments to comply. The law does not include a statutory deadline. The FDA should extend the implementation period to give industry the time to review such guidance and address outstanding issues and comply with this important requirement.    Again, Mr. Chairman, thank you for calling the hearing, and when considering the legislation, we must always keep the priority of transforming our broken healthcare system into a true healthcare system in mind. And, again, I thank you and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,12 +97,24 @@
     <t>400414</t>
   </si>
   <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Upton. Well, thank you, Mr. Chairman.    Today we are going to discuss important bipartisan legislation that indeed seeks to provide some balance to the recently proposed menu labeling guidelines, H.R. 2017, the Common Sense Nutrition Disclosure Act of 2015. The bipartisan effort has always been spearheaded by Cathy McMorris Rodgers, a good friend, member of our leadership, active member of our committee.    This bill seeks to bring much needed clarity and alleviate some of the burdensome and unnecessary requirements that the menu labeling final rule has placed on businesses across the country.    Take, for example, my Michigan-based company Domino's, which we all know. Domino's has 34 million different potential menu combinations. It has an online calculator that determines the nutrition information for your particular order, and 91 percent of their orders are placed online, 91 percent. Requiring in-store information for 34 million potential menu items would cost each store an average of nearly $5,000 per year, and it wouldn't address the ultimate goal of informing consumers.    There is no doubt that the U.S. should have a uniform national policy for menu labeling. However, we need to take a pragmatic approach. The goal is ensuring customers have the information that they need to make informed decisions, and in order to do that we have to make sure that companies can reasonably comply with those requirements. The current situation fails to address the realistic needs of consumers and places enormous burden on businesses all across the country.    As it stands, restaurants and similar retail food establishments have until December 1 of this year to comply with the final rule, yet there are still a number of outstanding questions and issues. Complying with the final rule will take substantial time and resources, and FDA has made it even harder by failing to provide more clarity. Businesses need to know how to comply. In order to do so, businesses need time to plan and put things in place, and FDA's failure to provide clarity has made it impossible for those things to happen.    So today we are going to hear from the stakeholders. I hope that we can discuss solutions to the problems. I want to thank the panel, and I want to yield the balance of my time to the sponsor of the bill, Cathy McMorris Rodgers.</t>
   </si>
   <si>
     <t>400659</t>
   </si>
   <si>
+    <t>McMorris Rodgers</t>
+  </si>
+  <si>
+    <t>Cathy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. McMorris Rodgers. Thank you. I would like to thank Chairman Pitts and Chairman Upton for their attention to this important issue, and Representative Loretta Sanchez for co-leading this bill.    Our joint efforts to clarify these regulations and represent the needs of America's small business owners are critical. I would also like to thank Chairman Upton and the nearly 40 other bipartisan Members who have thus far agreed to cosponsor.    H.R. 2017 is simple. Clarify the intent of this nearly 400-page regulation so that businesses can comply with it and so that consumers can have access to helpful calorie information. That is why my staff and I have met with stakeholders and other Member offices on all sides of this issue more than 20 times this year and have asked how we can improve this legislation. Something that we have heard again and again was that the 50 percent revenue trigger for what defines a restaurant is not fair. And I would like to ask unanimous consent to insert into the record a letter from the National Restaurant Association to Congress on April 28 that only discusses the 50 percent revenue exemption in H.R. 2017 as concerning.</t>
   </si>
   <si>
@@ -97,6 +130,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    Mr. Chairman, I would ask unanimous consent to put in the record a letter from Congresswoman DeLauro addressed to you and Mr. Green.</t>
   </si>
   <si>
@@ -109,6 +148,12 @@
     <t>400663</t>
   </si>
   <si>
+    <t>Matsui</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Matsui. I thank the ranking member for yielding me time. I thank the witness for being here today.    We all agree that the rising rates of obesity and the resulting chronic health conditions constitute a health crisis in our country. And we all agree that access to nutrition information is an important step in addressing the obesity epidemic.    The Affordable Care Act took great strides toward addressing this epidemic by requiring nutrition labeling at restaurants and other places where people purchase food.    The FDA has been working to implement this requirement in a reasonable way, and to provide guidance to stakeholders who have legitimate concerns about their ability to comply. However, to the extent that additional guidance is not supplied well in advance of the December 1 deadline, additional time is warranted.    I look forward to working with the FDA and stakeholders to ensure that this provision is successfully implemented to benefit consumers without imposing overly burdensome or impractical requirements on our businesses.    I look forward to hearing from our witnesses today and working with my colleagues to address this issue going forward, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -124,6 +169,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Hubbard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Hubbard. Chairman Pitts, Ranking Member Green, members of the subcommittee, thank you for the opportunity to testify before you today. My name is Sonya Hubbard, and I am the CEO of E-Z Mart Stores headquartered in Texarkana, Texas. E-Z Mart owns and operates nearly 300 convenience stores in Texas, Oklahoma, Arkansas and Louisiana, all of which offer foods that are subject to the FDA's current menu labeling regulations.    I am testifying today on behalf of NACS, the National Association of Convenience Stores. Although more than 60 percent of our members operate single stores, many of these single-store owners do business under the name of a major oil company or are franchisees of larger businesses that are thus covered by the menu labeling requirements that are subject of the hearing today.    The convenience store industry strongly supports H.R. 2017, the Common Sense Nutrition Disclosure Act, and the efforts to provide customers and consumers with nutrition information that they want and need. Indeed, most of the food sold in the convenience stores is prepackaged, as has been discussed, and already provides this information.    If Congress enacts H.R. 2017, consumers would receive more nutrition information than they do today, and they would receive it in a way that is more useful to them. The food operations of the convenience stores are vert different than that of chain restaurants, yet the FDA's final ruling was geared toward the chain restaurant model. Many chain restaurants sell the same food offerings prepared in the same way and displayed on the same menu at all of their locations. That is not true for the convenience store industry. Convenience stores, even those that are part of the same chain, sell different foods based upon the different locations and the different market demands. Even stores that do sell the same items may offer those items in different ways in stores that are configured differently.    At E-Z Mart, we have different foods in different locations, which would in turn require different menus. Even when different stores have the same foods like a breakfast sandwich, they might have a different calorie count because the supplier that provides the components are different. E-Z Mart deals with more than 50 food suppliers, and it has proved difficult getting the nutrition information we need from them. We expect that some won't get us that information by the December 1 deadline. And there isn't much we can do about it. Nothing in the law or regulations requires suppliers to give us the information that we need. The responsibility is ours alone.    The food we offer changes frequently. At any given time we may be testing 15 or 20 different new products, and some of them will become long-term permanent fixtures in our stores, and others may change and be only temporary. This only adds to the complexity and difficulties of complying with the rules.    We want to provide our customers with useful information, and H.R. 2017 does not roll back the regulations, but instead gives us the flexibility we need to do this.    For example, the legislation would allow us to have one menu board in our locations rather than a scattering of confusing signs throughout the stores that repeat the same information. A basic wall of words. It would allow us more flexibility to display calories in ranges and averages rather than trying to come up with exact calorie counts for all items that may vary. The bill would give us more flexibility for foods that we are testing in different locations.    In addition, the bill would be very helpful in curbing the high punitive nature of some of the enforcement provisions. It simply should be not be a felony if a store does not prepare the food exactly the same way as another store on the exact same day if one of my clerks makes a mistake. We need some recognition of the good faith efforts to comply. And no mistake in this area should be serious enough to charge one of my store managers with a felony.    Finally, we need more time to comply once new regulations are issued. This is a complex regulatory regime, and we must analyze each and every one of our locations differently. We need time to work with our suppliers.    The bottom line is that H.R. 2017 is good sensible legislation that will improve the FDA's rules by helping businesses actually comply, and that will mean more good useful information to consumers.    I thank you again for the opportunity to testify, and I look forward to answering any questions you may have.</t>
   </si>
   <si>
@@ -133,6 +181,9 @@
     <t xml:space="preserve">    Mr. Pitts. Now recognizes Mr. O'Quinn 5 minutes for opening statement.</t>
   </si>
   <si>
+    <t>O'Quinn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Quinn. Good morning, Chairman Pitts, Ranking Member Green, and health subcommittee members. I am Israel O'Quinn, Director of Strategic Initiatives for K-VA-T food stores based in Abingdon, Virginia. Our company operates 105 supermarkets primarily under the Food City banner in Kentucky, Virginia, and Tennessee. We are also an associate-owned ESOP company, and that is certainly something that we all take a lot of pride in. Additionally, we are members of the Food Marketing Institute and the National Grocers Association. So I am here representing a lot of grocers all over the United States today.    We really appreciate the work that you are doing to consider the impact of the FDA's menu labeling regulations on grocery stores and the need for the Common Sense Nutrition Disclosure Act of 2015, also known as H.R. 2017.    As grocers, we like to provide our customers with the products they want in the format that they desire, and more than 90 percent of the foods in our grocery store have not only calorie information but the full nutrition facts panel listing fat, sodium, and sugar content among other things. Many of the remaining items that we offer are actually sourced from within the store. If a cantaloupe or some other fruit or vegetable gets ripe in the produce department, we bring it over to the bakery/deli department, cut it up, and put it in the salad bar. And, in fact, many of our bakery/deli departments actually prepare foods that may be specific to a single store or a handful of stores based on regional tastes and preferences.    Throughout our stores and across our company, we have a team of quality assurance personnel that is focused exclusively on food safety. That includes implementation of the Food Safety Modernization Act, compliance with country of origin labeling, ingredient labeling, allergen labeling, bioterrorism and recordkeeping and proposed updates to the nutrition facts panel, as well as recall notifications.    We also have our own safety and quality standards that go well beyond these laws because I can promise you the last thing we want is someone to get sick from the food in our grocery stores.    You might ask how any of this is related to what we are talking about today. These are all areas that are of priority of the supermarket industry specifically and where we devote a lot of time and resources. They are also regulations that are not applied to chain restaurants. So when the FDA takes a chain restaurant menu labeling law and stretches its regulations out to grocery stores on top of all the other food safety and nutrition laws that we comply with and abide by, it shouldn't surprise anyone that the glove simply doesn't fit.    Now, we are wholly committed to aiding our customers in making healthy choices, and I will highlight quickly just three of those things that we are currently doing.    We, along with a lot of other grocers, have a healthy initiatives department that helps our associates and our customers make more informed decisions about healthy eating. Something we didn't have to do but something that is the right thing to do.    We have also invested significant resources in the NuVal scoring system, a system that gives a 0 to 100 score right on the shelf tag so you can easily tell the nutritional value of any given product.    We are also involved in a large locally grown produce initiative. Now, most of the farmers in this initiative were formerly tobacco farmers, and they are now growing the freshest and best tasting fruits and vegetables that you can find anywhere.    Over a 14-year span in this program, we have gone from purchasing $750,000 in product to nearly $6 million last year alone. We are now able to offer premium produce at a very affordable price, and you can know the specific farm from which that product came. We were doing locally grown a long time before it was actually cool.    In closing, you may or may not be aware that grocery stores operate on a profit margin that averages about 1 percent. There is very, very little room for us to absorb costs such as the ones presented by menu labeling.    When you operate on a razor thin profit imagine, you simply don't have the luxury of spending money on things that bring little to no value. The costs are ultimately passed along to the consumer, and in an economy that contracted at .7 percent last quarter, consumers can't afford to be paying more and getting very little in return for those investments.    Now, our industry has asked a lot of questions and attempted a lot of meetings with FDA throughout this process, and we have had very few meetings and very few answers. So we believe that H.R. 2017 is a huge step in the right direction. We thank Ms. McMorris Rodgers and Ms. Sanchez for putting this bill in, and we thank you very much for your time and attention.</t>
   </si>
   <si>
@@ -142,12 +193,18 @@
     <t xml:space="preserve">    Mr. Pitts. Now recognizes Ms. Liddle 5 minutes for opening statement.</t>
   </si>
   <si>
+    <t>Liddle</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Liddle. Good morning, ladies and gentlemen. I am honored to have the privilege to speak on behalf of the 20,000 pizzerias across the U.S. who make up our coalition called the American Pizza Community, and for 900 Domino's small business owners. I appreciate your giving us this chance to discuss how calorie information is best presented to our customers.    Our requests are simple modern practical solutions that will inform consumers in a better way and relieve a cost burden from small business. I believe that you will find them more than reasonable.    At Domino's, as we have heard, there are 34 million ways to make a single pizza based on all the crust types, sauces, and toppings that we offer. Pizza Hut has published that they now have 2 billion.    So our first point is that you can't possibly fit all the iterations of a pizza on a typical menu board like you can for burgers, for example. FDA did understand that too. So they said just put ranges. But if you put ranges for a whole pie, that is a range of up to 2,000 calories. If you do it by the slice, it is still a range of hundreds of calories. We think that the calories should be disclosed more precisely so that our customers actually know what they are eating. Our solution is to put the information where our customers go. Online. Right now about half of all Domino's orders and those of Pizza Hut and Papa John's come from online. And 5 minutes from now there will be more since the industry is moving there at warp speed. The rest of our customers who don't order online pick up the phone to order. This means that very few people, and our figures show less than 10 percent, walk into a store, look at a menu board and make their ordering decision in that way. Think about your own ordering habits. What do you do when you order pizza?    To illustrate this point with a specific example, we recently spent an average day in a Domino's store in Michigan. Out of the 324 orders we witnessed, 91 percent were placed remotely, either online or by phone. About 7 percent were placed in store, and not even 2 percent of customers, that is 5 out of 324, used the menu board to place an order. To us, it makes no sense to retrofit this information on a menu board which the vast majority don't even use.    My second point is about imposing an unneeded and somewhat bizarre expense, we think, on small business people. Most people think of Domino's or Papa John's, for example, as big business, but we are actually a collection of small business owners or franchisees. Nearly half of Domino's franchisees only own one store, and our average is just 5 stores per franchisee. This is the common model for pizza. So why make these small local business people who live, work, and hire in your districts pay thousands of dollars a year for something that nobody uses.    There are also other provisions of the final rules from FDA that we find pretty frightening. They define menus very broadly, which will force businesses to calorie label anything a customer could possibly order from. The original law defined a menu as the primary writing of the restaurant.    Now, I am a simple Midwesterner, but I think primary means first and foremost, not all. In our business, we send lots of advertising fliers out, top boxes with fliers, and put posters up in stores. None of these were ever intended as menus, and they can't possibly all be considered primary. And this isn't unique to pizza. It spans across many restaurant types. FDA claims to have recognized this point, but the definitions that they laid out in the final rules still don't differentiate these properly.    Lastly, the final FDA regulations require that you have to certify at both the corporate and individual store levels that you have listed all the correct calories in all the correct places and that you could face criminal penalties should you do this wrong. And what about class action lawsuits if a teenage pizza maker is a little heavy handed with the cheese and the slice doesn't match the listed calories.    We believe that a business should be required to show that it has made reasonable efforts to correctly depict calorie information, and I hope that we can all agree that inadvertently putting too many toppings on a pizza should not result in crippling fines and threats of jail time.    Even with all the fixes that we have proposed, the job of calorie labeling won't be an easy one, but we think it is worth it. People do have a right to know what they are eating, which is why we have been voluntarily disclosing calorie information in one form or another for 14 years.    But to get ready, computer programing, material design, nutritional research, and operational systems will need to be put in place. So we have asked for more time to get it done. But let me be clear. In no way do we see a delay in the rules as a solution. We must have a legislative fix.    In closing, I cannot say it too many times. We are not seeking an exemption. We want to comply in a way that fits our business model, provides the information to our customers in the clearest way, and doesn't make small business pay for materials customers won't see or use.    We ask you to support and ultimately vote for H.R. 2017 for the sake of all these important constituencies. Chairman Pitts, and members of the subcommittee, thank you for listening to me, and thank you, Representatives McMorris Rodgers and Sanchez for your leadership on this issue.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. Now recognizes Ms. Raskopf 5 minutes for an opening statement.</t>
   </si>
   <si>
+    <t>Raskopf</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Raskopf. Thank you for the opportunity to testify before you today. My name is Karen Raskopf, and I serve as the Chief Communications Officer for Dunkin' Brands. Dunkin' Brands is the franchisor and parent company of two of America's most beloved brands, Dunkin' Donuts and Baskin-Robbins. Both Dunkin' Donuts and Baskin-Robbins are essentially 100 percent franchised. At the end of 2014, Dunkin' Brands included more than 10,500 Dunkin' Donuts and Baskin-Robbins in the United States alone.    And, by the way, Baskin-Robbins franchisees own an average of about one restaurant. Dunkin' Donuts own an average of about six. So they are small business people.    Dunkin' Brands has proudly supported national uniform menu labeling for many years, and we continue to believe a national standard for providing nutrition information on all restaurant-type foods is critical. Over the past several years, Dunkin' Brands and many others in the restaurant industry have worked proactively with Congress and the administration to help reform what had previously been a complex highly localized approach to menu labeling.    Before the Federal solution, labeling laws were being passed on a state-by-state, city-by-city basis, and in some cases counties were competing with cities to pass such laws. Competing State and local menu labeling laws were difficult and disruptive for businesses, as well as lacking in consistency for customers. A national approach to labeling was an important and necessary step for our franchisees, our industry, and, most importantly, for consumers. It has been long overdue and remains critically important.    We acknowledge that today's food service industry is large and complex. However, though we continue to have some specific questions in regards to how to efficiently and effectively implement certain sections of the regulation, we appreciate FDA's commitment to working with stakeholders. We believe FDA generally followed the intent of the law, and did so in a manner to largely minimize cost and burden to the food service industry. While some may argue that there is expense and inefficiency in regards to implementation, after having complied with both individual State laws, as well as completing much of the work to meet the year end deadline, I can assure you FDA has worked to address most of the significant and potential costly issues to us.    Likewise, the new labeling regulation is intended to benefit both businesses and consumers by focusing on all establishments that serve restaurant-type food, not just a select few. For this reason, the regulation specifically includes not only restaurant chains but also other food service retailers with 20 or more locations, including convenience stores, grocery stores, and others.    H.R. 2017 includes a provision that imposes a percentage revenue threshold exempting grocery and convenience stores from having to label their restaurant-type food. We strongly disagree with this. The benefits of nutrition labeling are important no matter the size of the menu or the percentage of sales from food.    I hope Congress will maintain the labeling regulation as it was written. Grocery and convenience stores are increasingly competing against our restaurants. While we welcome the competition, we believe that restaurant-type food that grocery and convenience stores sell should be held to the same standards as the food that traditional restaurants sell. This is about the type of food being sold, not the business format.    A final point I would like to make is there have been many concerns expressed in regards to the expense associated with determining nutritional information and the cost to communicate that information. To be clear, the regulation states that food service operators need only use reasonable means to calculate nutrition information. Lab testing is not required. There are multiple ways to determine nutritional values, many of them at minimal cost.    And, very importantly, the regulation does not require menu boards. The regulation--how companies choose to communicate nutrition information is a business decision, not a legislative one, and from high tech to low tech, there are many communications options available to retailers.    For these reasons, we do not support the language in H.R. 2017 that clarifies this point. And to be clear, we do not believe any additional legislation is necessary. All clarifying information can be handled through FDA guidance.    Thank you for the opportunity to testify.</t>
   </si>
   <si>
@@ -157,6 +214,9 @@
     <t xml:space="preserve">    Mr. Pitts. Now recognizes Dr. Wootan 5 minutes for an opening statement.</t>
   </si>
   <si>
+    <t>Wootan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Wootan. Good morning. I am Margo Wootan, the Director of Nutrition Policy at the Center for Science in the Public Interest, and I appreciate the opportunity to share the consumer view this morning.    CSPI supports the Senate's bipartisan request to the FDA to give industry more time to comply with menu labeling, but we strongly oppose H.R. 2017. The Common Sense Nutrition Disclosure Act supports neither commonsense nor nutrition information disclosure. Commonsense would be to side with the American people who are afflicted by high rates of obesity over Domino's, which is hardly in need of Congressional protection, given its almost $2 billion in annual sales.    At a time when two-thirds of Americans are either overweight or obese, half of our food dollars are spent on away-from-home foods, and studies clearly link eating out to obesity. Common sense would suggest that Congress support Americans' ability to make educated choices from the widest range of food service establishments provided under the law.    I admire the gutsiness of some of my fellow witnesses. It is politically astute and clever to focus on the fixes that H.R. 2017 would supposedly provide them while failing to mention that the bill would totality exempt them from providing calorie information for their prepared foods. This bill most definitely would not make it easier for people to access meaningful, easily accessible nutrition information. That is why over 115 health experts and organizations oppose this bill.    Supermarkets say that they are willing to give customers what they want, but fail to mention that over 80 percent of Americans want supermarkets to provide calorie information for their prepared foods like fried chicken, sandwiches and soups. And more than a quarter want calorie labeling for the hot dogs, pizza, nachos, and other foods sold at convenience stores. How are people supposed to make informed choices if Congress, supermarkets, convenience stores, pizza chains, and movie theaters withhold nutrition information from them?    Supermarket and convenience store exaggerations about the cost of menu labeling remind me of concerns in the early days when I was first working on menu labeling. But those did not turn out to be true. Menu labeling software is inexpensive. Many supermarkets already have dieticians on staff who can conduct calorie analysis. And restaurants have shown that calorie labeling is affordable and feasible in the dozens of jurisdictions where it is already in effect.    It is also disingenuous for supermarkets and convenience stores to promote themselves to customers as alternatives to restaurants while at the same time lobbying Congress about how different they are. Supermarket bakeries, buffets, salad bars are like those in restaurants, and many supermarkets now have tables where people can eat. 7-Eleven, Wawa and Sheetz are among the hundred top food service establishments in the country. And some of them even belong to the National Restaurant Association.    It is particularly hard to understand why pizza restaurants need a special exemption from listing calories on in-store menu boards. While many people do order pizza by phone or computer, similarly, many do not enter fast food restaurants, and order instead through the drive-thru. Yet fast food restaurants aren't opposing having to provide their customers with nutrition information on each of their menus. Likewise, pizza restaurants should not deny nutrition information to their in-store customers.    And pizza is a real problem in American's diets. It is the fifth largest source of calories. It is the second biggest source of saturated fat, and it is the third biggest source of sodium. If any restaurants need comprehensive nutrition labeling, it is pizza restaurants. The variability of pizza with its different crusts and toppings is no different than the variability of Subway sandwiches with different breads and meats and toppings and spreads. Or ice cream sundaes or Chipotle burritos. Calories can and are being expressed as ranges, or being provided for commonly ordered standard builds.    Finally, H.R. 2017's provision to allow restaurants and other food service establishments to arbitrarily chose to label items for only a fraction of the menu item is a recipe for confusion. It would be deceptive for consumers and make it very difficult for them to order.    I urge the committee to oppose H.R. 2017. Your constituents' health depend on it.</t>
   </si>
   <si>
@@ -238,6 +298,12 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman. I was almost going to sneak out from the hearing. And I understand there is some people who want to see this information. And I think if you did national polling, people would say sure, I would like to have it on. I don't think I have ever in my life read a menu label. I don't think I have ever looked for calorie numbers on anything I have consumed. And I bet that, I bet you I am in the majority of Americans.    So I just throw that out there. I really struggle with this. This is the perfect example of a nanny state, of a national government telling individual citizens and saying what is best for them and directing and pushing private sector individuals, to push people to consume things that they feel--that, it is, and it is unfortunate but we are here.    And so we have some issues to address. And I was here when we passed the healthcare law. All we passed was the Senate version of a bill. The Obamacare that passed, the healthcare law was a Senate bill that we passed on the floor without any additional debate or oversight for a year and a half later.    So, I want to go to Ms. Hubbard. OK. Here is the example, I have sons that I love very much. So they go and they get a drink at one of the convenience stores. They have personally titled a Scourade. Now, I am not sure what is in this thing. I think it is Sprite, Coke, Powerade, you know, that they mix themselves. You can't label for that, can you?</t>
   </si>
   <si>
@@ -283,6 +349,12 @@
     <t>412278</t>
   </si>
   <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. Thank you all for being here and speaking to us today. Ms. Raskopf, on Dunkin' Donuts, I know you all are located in New York City. So New York City started this, what, in 2007 I believe? So you have been working on menu labeling for how long? Seven years, seven or eight, almost eight years?</t>
   </si>
   <si>
@@ -328,6 +400,12 @@
     <t>412315</t>
   </si>
   <si>
+    <t>Schrader</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schrader. Thank you, Mr. Chairman. I guess for Dr. Wootan and Ms. Raskopf, these rules, actually to everybody, obviously, this rule is not ready for prime time. We have had considerable discussion about what it is going to do, how it would be implemented. I understand that. And, you know, although the rules have come out, it is my understanding that, you know, there has not been a whole lot of guidance going on.    And some of you already addressed this, some of us sent a letter asking for a little bit of a delay to, hopefully, iron out, get some more guidance before we went prime. I am grateful for this hearing and actually for this bill so that we can look at what options we may have to make this actually reasonable and work. Because I think, like everybody has testified, we want to actually have good information out there for our consumers. I think that is good.    But I am curious, I ask, I guess, Ms. Raskopf and Dr. Wootan, do you think a little bit more time is needed? Or is this, should we just get to it and do up and down votes on this type of legislation.</t>
   </si>
   <si>
@@ -361,6 +439,12 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Mr. Chairman. And I thank this panel. It is an important issue we are trying to deal with, obesity in America. I need to get into some other areas here because I want to look at this picture globally. None of us want to have the epidemic of obesity and the problems it brings along with this.    There is a lot more that goes with this. As you know, there are a couple schools I have been monitoring over the years not in my district. One is a very famous study done with Naperville Schools outside of Chicago. They actually required physical activity, intensive, not just battle ball, throw the ball, get hit, sit down so you are not doing anything, but real cardiovascular activity, where they wear monitors. And they found that their obesity rate plummeted. And they found that kids who were involved in these activities, their reading scores went up, their math score went up dramatically. Similar studies have been done in Cambridge, Massachusetts and other places. But it does raise other issues.    So calories itself, I am concerned about, is a very passive, small number. And if you look at studies out there of cause of obesity, it includes genetics, family history, age of the person, pregnancy, sleep levels, emotional wellness, medications they are on, other health conditions, such as thyroid and adrenal gland functioning, smoking. Anybody propose we put all those things on the message boards too? Because those are going to be much more predictive. In other words, if what you do is sit in front of your TV and eat our food and that is all you do, you will get fat. I don't care what restaurant it is.    And I get concerned that we are taking out, pardon the pun, such a small slice of information here, that we are not getting Americans the information to get off your butt and move. That is what it ought to be.    Now, I like it when some restaurants actually say that, some box of cereal say that. Good for them. I think that is a powerful message for kids. But I start to look at also how these messages go through. And we are going to have some things that I am not quite sure get the whole thing out. If we are going to be comprehensive, let's be comprehensive. I mean, for example, I understand that daily chef specials are going to be exempt from this. Is that true?</t>
   </si>
   <si>
@@ -410,6 +494,12 @@
   </si>
   <si>
     <t>400360</t>
+  </si>
+  <si>
+    <t>Schakowsky</t>
+  </si>
+  <si>
+    <t>Janice</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman. This is a little bit of dj vu for me, my career, it seems, started, I didn't know it then, started in the grocery store 45 years ago when a small group of housewives wanted to know how old our food was. Because everything was code dated. And we did, like detectives, cracked some of the codes and found things in the grocery store that were days, weeks, months, and years beyond the date. We didn't question the dates. And now everybody looks at the dates. I like to look at, stand in the dairy section and watch people check those milk dates, which they do.    We want to encourage people to look at the calories. Whether or not my colleague from Illinois does, maybe he should. And maybe we all should. And I want to suggest in terms of pizza, if there were a board that said on a slice of pizza, this is how much sausage adds to that slice, this is how much pepperoni adds to that slice, I can figure out, at least relatively, whether I get a sausage pizza or a pepperoni pizza or if there is a difference at all. Or if I get mushrooms or whatever, I could see that. This is not hard. And, I'm sorry, it is not hard to list the additions that you have on a pizza so that I could check and see which is the better choice if I am watching calories.    There may be a gender difference here too. I don't know a woman who doesn't look at the calories on food that we are buying. And we all should. In terms of the grocery stores, many serve as catering operations also. Why on a catering menu, would it be harder to list what the calories are on those things? I would make decisions, I do get catering things from my grocery store. I would like to know that. What is the difference between, if there is one, a ham sandwich or a turkey sandwich and that kind of thing when I am having a party.    The cost of obesity is, just for the healthcare cost is projected to be $344 billion by 2018. So even if you don't care about diabetes and all the other related things to obesity, we ought to be caring about the cost of, you know, what it costs us, what it costs our healthcare systems to treat obesity. And that, I think, would be one of the most important pieces of information.    So I don't quite understand the problem here. I did want to ask, who is pizza, Ms. Liddle--yes, why is this not a simple idea? And the FDA actually suggested it.</t>
@@ -932,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,7 +1030,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,4157 +1052,4891 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
       <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
       <c r="H17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G59" t="s">
+        <v>94</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G61" t="s">
+        <v>94</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G63" t="s">
+        <v>94</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G65" t="s">
+        <v>94</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
+        <v>38</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G70" t="s">
+        <v>38</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
+        <v>38</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G74" t="s">
+        <v>111</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G76" t="s">
+        <v>111</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s">
+        <v>62</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G78" t="s">
+        <v>111</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G80" t="s">
+        <v>111</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G82" t="s">
+        <v>111</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
+        <v>51</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G84" t="s">
+        <v>111</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G85" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G86" t="s">
+        <v>111</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G88" t="s">
+        <v>128</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G89" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G90" t="s">
+        <v>128</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s">
+        <v>66</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G92" t="s">
+        <v>128</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G95" t="s">
+        <v>128</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G96" t="s">
+        <v>59</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G97" t="s">
+        <v>128</v>
+      </c>
       <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G99" t="s">
+        <v>141</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G100" t="s">
+        <v>66</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G101" t="s">
+        <v>141</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G102" t="s">
+        <v>66</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G103" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G104" t="s">
+        <v>141</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G105" t="s">
+        <v>51</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>114</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G106" t="s">
+        <v>141</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G107" t="s">
+        <v>51</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G108" t="s">
+        <v>141</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G109" t="s">
+        <v>66</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G110" t="s">
+        <v>141</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G111" t="s">
+        <v>66</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>114</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G112" t="s">
+        <v>141</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G115" t="s">
+        <v>160</v>
+      </c>
       <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G116" t="s">
+        <v>59</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>131</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G117" t="s">
+        <v>160</v>
+      </c>
       <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G118" t="s">
+        <v>59</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>131</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G119" t="s">
+        <v>160</v>
+      </c>
       <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G120" t="s">
+        <v>59</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G121" t="s">
+        <v>160</v>
+      </c>
       <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G122" t="s">
+        <v>59</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G123" t="s">
+        <v>160</v>
+      </c>
       <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G124" t="s">
+        <v>66</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G125" t="s">
+        <v>160</v>
+      </c>
       <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G126" t="s">
+        <v>59</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G127" t="s">
+        <v>160</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I127" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G128" t="s">
+        <v>59</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G130" t="s">
+        <v>31</v>
+      </c>
       <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I130" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
       <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G133" t="s">
+        <v>51</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
       <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G135" t="s">
+        <v>51</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G136" t="s">
+        <v>31</v>
+      </c>
       <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I136" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G137" t="s">
+        <v>51</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
       <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I138" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G139" t="s">
+        <v>51</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
       <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I140" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G141" t="s">
+        <v>51</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G143" t="s">
+        <v>59</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G144" t="s">
+        <v>31</v>
+      </c>
       <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G145" t="s">
+        <v>59</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
       <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I146" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G147" t="s">
+        <v>59</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
       <c r="H148" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G149" t="s">
+        <v>59</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
       <c r="H150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I150" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G151" t="s">
+        <v>62</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G152" t="s">
+        <v>31</v>
+      </c>
       <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I152" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G153" t="s">
+        <v>62</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G154" t="s">
+        <v>31</v>
+      </c>
       <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I154" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G155" t="s">
+        <v>62</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G156" t="s">
+        <v>31</v>
+      </c>
       <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I156" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G157" t="s">
+        <v>62</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G158" t="s">
+        <v>31</v>
+      </c>
       <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I158" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G159" t="s">
+        <v>55</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G160" t="s">
+        <v>59</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G161" t="s">
+        <v>31</v>
+      </c>
       <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I161" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
       <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G164" t="s">
+        <v>55</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
       <c r="H165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G166" t="s">
+        <v>55</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
       <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I167" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G168" t="s">
+        <v>55</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s">
+        <v>17</v>
+      </c>
       <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G170" t="s">
+        <v>59</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
       <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="G172" t="s">
+        <v>59</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>17</v>
+      </c>
       <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" t="s">
-        <v>189</v>
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97511.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97511.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400320</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Pitts</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>400414</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Upton</t>
   </si>
   <si>
@@ -128,6 +137,9 @@
   </si>
   <si>
     <t>400308</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Pallone</t>
@@ -1022,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,7 +1042,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,4888 +1067,5276 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s">
-        <v>59</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" t="s">
-        <v>66</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" t="s">
-        <v>66</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G59" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" t="s">
-        <v>51</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G61" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" t="s">
-        <v>51</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64" t="s">
-        <v>51</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G65" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
-      </c>
-      <c r="G66" t="s">
-        <v>55</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H68" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
-      </c>
-      <c r="G69" t="s">
-        <v>66</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H70" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
-      </c>
-      <c r="G71" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G74" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
-      </c>
-      <c r="G75" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>66</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
-      </c>
-      <c r="G77" t="s">
-        <v>62</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G78" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>50</v>
-      </c>
-      <c r="G79" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>66</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G80" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>50</v>
-      </c>
-      <c r="G81" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>66</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G82" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
-      </c>
-      <c r="G83" t="s">
-        <v>51</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G84" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
-      </c>
-      <c r="G85" t="s">
-        <v>55</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G86" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G88" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>50</v>
-      </c>
-      <c r="G89" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G90" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I90" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
-      </c>
-      <c r="G91" t="s">
-        <v>66</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G92" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
-      </c>
-      <c r="G96" t="s">
-        <v>59</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>63</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G97" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G99" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I99" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>50</v>
-      </c>
-      <c r="G100" t="s">
-        <v>66</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G101" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I101" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>50</v>
-      </c>
-      <c r="G102" t="s">
-        <v>66</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>50</v>
-      </c>
-      <c r="G103" t="s">
-        <v>51</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>55</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G104" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I104" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
-      </c>
-      <c r="G105" t="s">
-        <v>51</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>55</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G106" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I106" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J106" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
-      </c>
-      <c r="G107" t="s">
-        <v>51</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>55</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G108" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I108" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>50</v>
-      </c>
-      <c r="G109" t="s">
-        <v>66</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>70</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G110" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I110" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
-      </c>
-      <c r="G111" t="s">
-        <v>66</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>70</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G112" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I112" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G115" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J115" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>50</v>
-      </c>
-      <c r="G116" t="s">
-        <v>59</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>63</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G117" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I117" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
-      </c>
-      <c r="G118" t="s">
-        <v>59</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>63</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G119" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I119" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
-      </c>
-      <c r="G120" t="s">
-        <v>59</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>63</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G121" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I121" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>50</v>
-      </c>
-      <c r="G122" t="s">
-        <v>59</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>63</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G123" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I123" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J123" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>50</v>
-      </c>
-      <c r="G124" t="s">
-        <v>66</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>70</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G125" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I125" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J125" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
-      </c>
-      <c r="G126" t="s">
-        <v>59</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>63</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G127" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J127" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>50</v>
-      </c>
-      <c r="G128" t="s">
-        <v>59</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>63</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I130" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>50</v>
-      </c>
-      <c r="G131" t="s">
-        <v>51</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>55</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I132" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
-      </c>
-      <c r="G133" t="s">
-        <v>51</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>55</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>50</v>
-      </c>
-      <c r="G135" t="s">
-        <v>51</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>55</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I136" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>50</v>
-      </c>
-      <c r="G137" t="s">
-        <v>51</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>55</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I138" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>50</v>
-      </c>
-      <c r="G139" t="s">
-        <v>51</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>55</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I140" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>50</v>
-      </c>
-      <c r="G141" t="s">
-        <v>51</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>55</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J142" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>50</v>
-      </c>
-      <c r="G143" t="s">
-        <v>59</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>63</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I144" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>50</v>
-      </c>
-      <c r="G145" t="s">
-        <v>59</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>63</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I146" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J146" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>50</v>
-      </c>
-      <c r="G147" t="s">
-        <v>59</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>63</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I148" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J148" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>50</v>
-      </c>
-      <c r="G149" t="s">
-        <v>59</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>63</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I150" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J150" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>50</v>
-      </c>
-      <c r="G151" t="s">
-        <v>62</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>66</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I152" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J152" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>50</v>
-      </c>
-      <c r="G153" t="s">
-        <v>62</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>66</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I154" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J154" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>50</v>
-      </c>
-      <c r="G155" t="s">
-        <v>62</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>66</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I156" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J156" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
-      </c>
-      <c r="G157" t="s">
-        <v>62</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>66</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I158" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>50</v>
-      </c>
-      <c r="G159" t="s">
-        <v>55</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>59</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>50</v>
-      </c>
-      <c r="G160" t="s">
-        <v>59</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>63</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I161" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J161" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G163" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I163" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J163" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>50</v>
-      </c>
-      <c r="G164" t="s">
-        <v>55</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>59</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I165" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J165" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>50</v>
-      </c>
-      <c r="G166" t="s">
-        <v>55</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>59</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G167" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I167" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J167" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
-      </c>
-      <c r="G168" t="s">
-        <v>55</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>59</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G169" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I169" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J169" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>50</v>
-      </c>
-      <c r="G170" t="s">
-        <v>59</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>63</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G171" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I171" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J171" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>50</v>
-      </c>
-      <c r="G172" t="s">
-        <v>59</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>63</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G173" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I173" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J173" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>219</v>
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
